--- a/static/database/data.xlsx
+++ b/static/database/data.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JamalNoahChesterMorris\OpenSource\configuration\static\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBC1EC0-E64F-4D2F-B510-B9038BC0C0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD5360F-9F73-40F3-9050-48374AFB08A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32370" yWindow="1035" windowWidth="21600" windowHeight="11295" xr2:uid="{5D58F436-2EA9-4455-AB8E-F3BCCF2958DB}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D58F436-2EA9-4455-AB8E-F3BCCF2958DB}"/>
   </bookViews>
   <sheets>
     <sheet name="stack" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_2" localSheetId="0" hidden="1">stack!$A$1:$C$9</definedName>
+    <definedName name="ExternalData_2" localSheetId="0" hidden="1">stack!$A$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Language</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>https://www.npmjs.com/</t>
+  </si>
+  <si>
+    <t>https://alpinejs.dev/</t>
   </si>
 </sst>
 </file>
@@ -166,10 +169,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}" name="Query15" displayName="Query15" ref="A1:C9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:C9" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
-    <sortCondition ref="B1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}" name="Query15" displayName="Query15" ref="A1:C10" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:C10" xr:uid="{120B6989-5129-4FCE-B62A-6C4BF162BAF7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C10">
+    <sortCondition ref="B1:B10"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{709C8F7E-A669-4935-A148-505EA90E9645}" uniqueName="1" name="Language" queryTableFieldId="1"/>
@@ -477,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D1751B-C395-49E1-B892-E3E84165DBEA}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,6 +589,17 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
